--- a/Backend/LoyallaApi/LoyallaApi/Upload/Correct answer.xlsx
+++ b/Backend/LoyallaApi/LoyallaApi/Upload/Correct answer.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AliRazaTahir\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zaid\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F367F804-0780-463E-8C4F-135018AF2533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3863D317-4A0E-4057-B4EB-A8F21965D129}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3036" yWindow="3036" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Paper" sheetId="1" r:id="rId1"/>
@@ -34,6 +34,15 @@
     <t>Description</t>
   </si>
   <si>
+    <t>Biology</t>
+  </si>
+  <si>
+    <t>Medical I</t>
+  </si>
+  <si>
+    <t>First Paper</t>
+  </si>
+  <si>
     <t>Topic</t>
   </si>
   <si>
@@ -221,15 +230,6 @@
   </si>
   <si>
     <t>mak</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>Medical II</t>
-  </si>
-  <si>
-    <t>Second Paper</t>
   </si>
 </sst>
 </file>
@@ -611,11 +611,9 @@
   </sheetPr>
   <dimension ref="A1:Z2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:26">
       <c r="A1" s="1" t="s">
@@ -651,15 +649,15 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:26" ht="15" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>66</v>
+        <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>67</v>
+        <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>68</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -674,25 +672,25 @@
   </sheetPr>
   <dimension ref="A1:Z18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="41.21875" customWidth="1"/>
+    <col min="2" max="2" width="41.1796875" customWidth="1"/>
     <col min="3" max="3" width="56" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="13.2">
+    <row r="1" spans="1:26" ht="13">
       <c r="A1" s="16" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -725,237 +723,237 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" ht="22.2" customHeight="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="22.25" customHeight="1">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" ht="13.8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="14">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" ht="13.8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="14">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" ht="13.8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="14">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" ht="13.8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="14">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" ht="13.8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="14">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="15.5">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="15.5">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="15.5">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="15.5">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="15.5">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="15.5">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" ht="13.8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="14">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="15.5">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.5">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.5">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="24">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>22</v>
-      </c>
       <c r="D18" s="3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -971,22 +969,22 @@
   </sheetPr>
   <dimension ref="A1:Z67"/>
   <sheetViews>
-    <sheetView topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A67"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="E73" sqref="E73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="28.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.33203125" customWidth="1"/>
+    <col min="1" max="1" width="28.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15" customHeight="1">
       <c r="A1" s="17" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -1013,535 +1011,535 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:26" ht="15.5">
       <c r="A2" s="3">
         <v>2</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="15.5">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="15.5">
       <c r="A4" s="3">
         <v>2</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="15.5">
       <c r="A5" s="3">
         <v>3</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="15.5">
       <c r="A6" s="3">
         <v>3</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="15.5">
       <c r="A7" s="3">
         <v>4</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="15.5">
       <c r="A8" s="3">
         <v>4</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="15.5">
       <c r="A9" s="3">
         <v>5</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="15.5">
       <c r="A10" s="3">
         <v>5</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="15.5">
       <c r="A11" s="3">
         <v>5</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="15.5">
       <c r="A12" s="3">
         <v>5</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="15.5">
       <c r="A13" s="3">
         <v>6</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="15.5">
       <c r="A14" s="3">
         <v>6</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="15.5">
       <c r="A15" s="3">
         <v>6</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="15.5">
       <c r="A16" s="3">
         <v>6</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.5">
       <c r="A17" s="3">
         <v>7</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.5">
       <c r="A18" s="3">
         <v>7</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.5">
       <c r="A19" s="3">
         <v>8</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.5">
       <c r="A20" s="3">
         <v>8</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15.5">
       <c r="A21" s="3">
         <v>8</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15.5">
       <c r="A22" s="3">
         <v>8</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15.5">
       <c r="A23" s="3">
         <v>8</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15.5">
       <c r="A24" s="3">
         <v>8</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15.5">
       <c r="A25" s="3">
         <v>8</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15.5">
       <c r="A26" s="3">
         <v>8</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15.5">
       <c r="A27" s="3">
         <v>8</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15.5">
       <c r="A28" s="3">
         <v>8</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="13.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="12.5">
       <c r="A29" s="3">
         <v>8</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15.5">
       <c r="A30" s="3">
         <v>9</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15.5">
       <c r="A31" s="3">
         <v>9</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15.5">
       <c r="A32" s="3">
         <v>10</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15.5">
       <c r="A33" s="3">
         <v>10</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="13.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="12.5">
       <c r="A34" s="3">
         <v>10</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15.5">
       <c r="A35" s="3">
         <v>11</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15.5">
       <c r="A36" s="3">
         <v>11</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="13.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="12.5">
       <c r="A37" s="3">
         <v>11</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="15.5">
       <c r="A38" s="3">
         <v>12</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="15.5">
       <c r="A39" s="3">
         <v>12</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="13.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="12.5">
       <c r="A40" s="3">
         <v>12</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="15.5">
       <c r="A41" s="3">
         <v>13</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="13.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="12.5">
       <c r="A42" s="3">
         <v>13</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="15.5">
       <c r="A43" s="3">
         <v>14</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="15.5">
       <c r="A44" s="3">
         <v>14</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="13.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="12.5">
       <c r="A45" s="3">
         <v>14</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="15.5">
       <c r="A46" s="3">
         <v>15</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="15.5">
       <c r="A47" s="3">
         <v>15</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="13.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="12.5">
       <c r="A48" s="3">
         <v>15</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="15.5">
       <c r="A49" s="3">
         <v>16</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="15.5">
       <c r="A50" s="3">
         <v>16</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="13.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="12.5">
       <c r="A51" s="3">
         <v>16</v>
       </c>
       <c r="B51" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="15.5">
+      <c r="A52" s="3">
+        <v>17</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="15.5">
+      <c r="A53" s="3">
+        <v>17</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="15.5">
+      <c r="A54" s="3">
+        <v>17</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="15.5">
+      <c r="A55" s="3">
+        <v>17</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="15.5">
+      <c r="A56" s="3">
+        <v>17</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="15.5">
+      <c r="A57" s="3">
+        <v>17</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="15.5">
+      <c r="A58" s="3">
+        <v>17</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="15.5">
+      <c r="A59" s="3">
+        <v>17</v>
+      </c>
+      <c r="B59" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="15.5">
+      <c r="A60" s="3">
+        <v>17</v>
+      </c>
+      <c r="B60" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="15.5">
+      <c r="A61" s="3">
+        <v>17</v>
+      </c>
+      <c r="B61" s="11" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="3">
-        <v>17</v>
-      </c>
-      <c r="B52" s="11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="3">
-        <v>17</v>
-      </c>
-      <c r="B53" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="3">
-        <v>17</v>
-      </c>
-      <c r="B54" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="3">
-        <v>17</v>
-      </c>
-      <c r="B55" s="11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="3">
-        <v>17</v>
-      </c>
-      <c r="B56" s="11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="3">
-        <v>17</v>
-      </c>
-      <c r="B57" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="3">
-        <v>17</v>
-      </c>
-      <c r="B58" s="11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="3">
-        <v>17</v>
-      </c>
-      <c r="B59" s="11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="3">
-        <v>17</v>
-      </c>
-      <c r="B60" s="11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="3">
-        <v>17</v>
-      </c>
-      <c r="B61" s="11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="13.2">
+    <row r="62" spans="1:2" ht="12.5">
       <c r="A62" s="3">
         <v>17</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="15.5">
       <c r="A63" s="3">
         <v>1</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="15.5">
       <c r="A64" s="3">
         <v>1</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="15.5">
       <c r="A65" s="3">
         <v>1</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="15.5">
       <c r="A66" s="3">
         <v>1</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E66" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="15.5">
       <c r="A67" s="3">
         <v>1</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1553,18 +1551,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E87AEC9-97C9-42B6-B3DF-5DCBAF43C397}">
   <dimension ref="A1:Z67"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="L53" sqref="L53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1">
       <c r="A1" s="13" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -1748,7 +1746,7 @@
         <v>8</v>
       </c>
       <c r="B21" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" customHeight="1">
@@ -1772,7 +1770,7 @@
         <v>8</v>
       </c>
       <c r="B24" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15.75" customHeight="1">
@@ -1796,7 +1794,7 @@
         <v>8</v>
       </c>
       <c r="B27" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15.75" customHeight="1">
@@ -1804,7 +1802,7 @@
         <v>8</v>
       </c>
       <c r="B28" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15.75" customHeight="1">
@@ -1820,7 +1818,7 @@
         <v>9</v>
       </c>
       <c r="B30" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="15.75" customHeight="1">
@@ -1852,7 +1850,7 @@
         <v>10</v>
       </c>
       <c r="B34" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="15.75" customHeight="1">
@@ -1908,7 +1906,7 @@
         <v>13</v>
       </c>
       <c r="B41" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="15.75" customHeight="1">
@@ -1932,7 +1930,7 @@
         <v>14</v>
       </c>
       <c r="B44" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="15.75" customHeight="1">
@@ -1980,7 +1978,7 @@
         <v>16</v>
       </c>
       <c r="B50" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="15.75" customHeight="1">
